--- a/summary_record.xlsx
+++ b/summary_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>题号</t>
   </si>
@@ -70,6 +70,9 @@
     <t>1160拼写单词</t>
   </si>
   <si>
+    <t>1170.比较字符串最小字母出现频次</t>
+  </si>
+  <si>
     <t>225用队列实现栈</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t>两点，一是通过collections.Counter构建的字典可以查找不存在的键，如果不存在，则返回0。第二点是对于for...else while…else的用法，可以巧妙使用避免用到flag来判断，精简代码</t>
+  </si>
+  <si>
+    <t>注意min(hashmap.keys())和min(hashmap, key=hashmap.get)的区别，分别针对键和值</t>
   </si>
   <si>
     <t>首次用到了deque</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +585,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -596,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -613,13 +619,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -630,13 +636,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -647,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -664,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -681,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -698,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -709,13 +715,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -726,13 +732,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -743,13 +749,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -760,13 +766,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -777,13 +783,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -794,13 +800,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -811,13 +817,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -828,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -848,10 +854,10 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -862,13 +868,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -879,10 +885,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -893,13 +902,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -910,13 +916,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -930,10 +936,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -944,13 +950,13 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -961,13 +967,13 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -978,13 +984,13 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -995,13 +1001,30 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/summary_record.xlsx
+++ b/summary_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>题号</t>
   </si>
@@ -70,7 +70,10 @@
     <t>1160拼写单词</t>
   </si>
   <si>
-    <t>1170.比较字符串最小字母出现频次</t>
+    <t>1170比较字符串最小字母出现频次</t>
+  </si>
+  <si>
+    <t>1128等价多米诺骨牌对的数量</t>
   </si>
   <si>
     <t>225用队列实现栈</t>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>注意min(hashmap.keys())和min(hashmap, key=hashmap.get)的区别，分别针对键和值</t>
+  </si>
+  <si>
+    <t>官解两个细节，一个是合理表示需要构建类似以二元组为键的字典，二是在线更新排列组合形式的数量，+=1，比统计完后再x(x-1)/2更快</t>
   </si>
   <si>
     <t>首次用到了deque</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -602,13 +608,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -619,13 +625,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -636,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -653,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -670,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -687,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -715,13 +721,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -732,13 +738,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -749,13 +755,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -766,13 +772,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -783,13 +789,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -800,13 +806,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -817,13 +823,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -834,13 +840,13 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -851,13 +857,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -871,10 +877,10 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -885,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -902,10 +908,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -916,13 +925,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -933,13 +939,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -953,10 +959,10 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -967,13 +973,13 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -984,13 +990,13 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1001,13 +1007,13 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1018,13 +1024,30 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/summary_record.xlsx
+++ b/summary_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>题号</t>
   </si>
@@ -76,6 +76,9 @@
     <t>1128等价多米诺骨牌对的数量</t>
   </si>
   <si>
+    <t>1893检查是否区域内所有整数都被覆盖</t>
+  </si>
+  <si>
     <t>225用队列实现栈</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>官解两个细节，一个是合理表示需要构建类似以二元组为键的字典，二是在线更新排列组合形式的数量，+=1，比统计完后再x(x-1)/2更快</t>
+  </si>
+  <si>
+    <t>两种解法，一个差分数组+前缀和，一个位运算的妙用。首次理解了前缀。。。的操作，首次见到差分数组</t>
   </si>
   <si>
     <t>首次用到了deque</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,13 +597,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -608,13 +614,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -625,13 +631,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -642,13 +648,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -676,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -693,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -721,13 +727,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -738,13 +744,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -755,13 +761,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,13 +778,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -789,13 +795,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -806,13 +812,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -823,13 +829,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -840,13 +846,13 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -857,13 +863,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -874,13 +880,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -894,10 +900,10 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -908,13 +914,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -925,10 +931,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -939,13 +948,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -956,13 +962,13 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -976,10 +982,10 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -990,13 +996,13 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1007,13 +1013,13 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1024,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1041,13 +1047,30 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>63</v>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/summary_record.xlsx
+++ b/summary_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>题号</t>
   </si>
@@ -79,6 +79,9 @@
     <t>1893检查是否区域内所有整数都被覆盖</t>
   </si>
   <si>
+    <t>1496判断路径是否相交</t>
+  </si>
+  <si>
     <t>225用队列实现栈</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>两种解法，一个差分数组+前缀和，一个位运算的妙用。首次理解了前缀。。。的操作，首次见到差分数组</t>
+  </si>
+  <si>
+    <t>官解两个细节，一个是set集合可以存储二元形式，不像hashtable. 二是更新方向时也可以构建哈希表，加快速度</t>
   </si>
   <si>
     <t>首次用到了deque</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,13 +603,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -614,13 +620,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -631,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -648,13 +654,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -665,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -682,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -699,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -716,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,13 +733,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,13 +750,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -761,13 +767,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -778,13 +784,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -795,13 +801,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -812,13 +818,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -829,13 +835,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -846,13 +852,13 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -863,13 +869,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -880,13 +886,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -897,13 +903,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -917,10 +923,10 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -931,13 +937,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -948,10 +954,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -962,13 +971,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -979,13 +985,13 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -999,10 +1005,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1013,13 +1019,13 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1030,13 +1036,13 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1047,13 +1053,13 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1064,13 +1070,30 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>65</v>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/summary_record.xlsx
+++ b/summary_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>题号</t>
   </si>
@@ -82,6 +82,9 @@
     <t>1496判断路径是否相交</t>
   </si>
   <si>
+    <t>21合并两个有序链表</t>
+  </si>
+  <si>
     <t>225用队列实现栈</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>半</t>
   </si>
   <si>
+    <t xml:space="preserve">是 </t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
@@ -185,6 +191,9 @@
   </si>
   <si>
     <t>官解两个细节，一个是set集合可以存储二元形式，不像hashtable. 二是更新方向时也可以构建哈希表，加快速度</t>
+  </si>
+  <si>
+    <t>链表初次实践</t>
   </si>
   <si>
     <t>首次用到了deque</t>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,13 +612,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -620,13 +629,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -637,13 +646,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -654,13 +663,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -671,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -688,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -705,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -722,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -733,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -750,13 +759,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -767,13 +776,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -784,13 +793,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -801,13 +810,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -818,13 +827,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -835,13 +844,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -852,13 +861,13 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -869,13 +878,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -886,13 +895,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -903,13 +912,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -920,13 +929,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -940,10 +949,10 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -954,13 +963,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -971,10 +980,13 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -985,13 +997,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1002,13 +1011,13 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1022,10 +1031,10 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1036,13 +1045,13 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1053,13 +1062,13 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1070,13 +1079,13 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1087,13 +1096,30 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>67</v>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/summary_record.xlsx
+++ b/summary_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>题号</t>
   </si>
@@ -85,6 +85,9 @@
     <t>21合并两个有序链表</t>
   </si>
   <si>
+    <t>141环形链表</t>
+  </si>
+  <si>
     <t>225用队列实现栈</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>链表初次实践</t>
+  </si>
+  <si>
+    <t>第一次用到Floyd算法的快慢指针</t>
   </si>
   <si>
     <t>首次用到了deque</t>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,13 +618,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -629,13 +635,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -646,13 +652,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -663,13 +669,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -680,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -697,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -714,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -731,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -742,13 +748,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -759,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -776,13 +782,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -793,13 +799,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -810,13 +816,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -827,13 +833,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -844,13 +850,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -861,13 +867,13 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -878,13 +884,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -895,13 +901,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -912,13 +918,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -929,13 +935,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -946,13 +952,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -966,10 +972,10 @@
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -980,13 +986,13 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -997,10 +1003,13 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1011,13 +1020,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1028,13 +1034,13 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1048,10 +1054,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1062,13 +1068,13 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1079,13 +1085,13 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1096,13 +1102,13 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1113,13 +1119,30 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>70</v>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/summary_record.xlsx
+++ b/summary_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>题号</t>
   </si>
@@ -88,6 +88,9 @@
     <t>141环形链表</t>
   </si>
   <si>
+    <t>160相交链表</t>
+  </si>
+  <si>
     <t>225用队列实现栈</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>第一次用到Floyd算法的快慢指针</t>
+  </si>
+  <si>
+    <t>三种方法，暴力，哈希，双指针</t>
   </si>
   <si>
     <t>首次用到了deque</t>
@@ -590,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,13 +624,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -635,13 +641,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -652,13 +658,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -669,13 +675,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -686,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -703,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -720,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -737,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -748,13 +754,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -765,13 +771,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -782,13 +788,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -799,13 +805,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -816,13 +822,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -833,13 +839,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -850,13 +856,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -867,13 +873,13 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -884,13 +890,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -901,13 +907,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -918,13 +924,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -935,13 +941,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -952,13 +958,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -969,13 +975,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -989,10 +995,10 @@
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1003,13 +1009,13 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1020,10 +1026,13 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1034,13 +1043,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1051,13 +1057,13 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1071,10 +1077,10 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1085,13 +1091,13 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1102,13 +1108,13 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1119,13 +1125,13 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1136,13 +1142,30 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" t="s">
-        <v>72</v>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/summary_record.xlsx
+++ b/summary_record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
   <si>
     <t>题号</t>
   </si>
@@ -91,6 +91,9 @@
     <t>160相交链表</t>
   </si>
   <si>
+    <t>24两两交换列表中的节点</t>
+  </si>
+  <si>
     <t>225用队列实现栈</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>三种方法，暴力，哈希，双指针</t>
+  </si>
+  <si>
+    <t>启示在于，这种肯定是通过多次迭代的操作不一定一次就能达到最终结果</t>
   </si>
   <si>
     <t>首次用到了deque</t>
@@ -596,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -641,13 +647,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -658,13 +664,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -675,13 +681,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -692,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -709,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -726,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -743,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -754,13 +760,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -771,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -788,13 +794,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -805,13 +811,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -822,13 +828,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -839,13 +845,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -856,13 +862,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -873,13 +879,13 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -890,13 +896,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -907,13 +913,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -924,13 +930,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -941,13 +947,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -958,13 +964,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -975,13 +981,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -992,13 +998,13 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1012,10 +1018,10 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1026,13 +1032,13 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1043,10 +1049,13 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1057,13 +1066,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1074,13 +1080,13 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1094,10 +1100,10 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1108,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1125,13 +1131,13 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1142,13 +1148,13 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1159,13 +1165,30 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
-        <v>74</v>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
